--- a/Heuristic_Results1.xlsx
+++ b/Heuristic_Results1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\161223 ArtInt\Proj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\Python\Proj2\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +24,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Heuristic</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>ID_Improved</t>
+  </si>
+  <si>
+    <t>Overall Result</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>MM_Null</t>
+  </si>
+  <si>
+    <t>MM_Open</t>
+  </si>
+  <si>
+    <t>MM_Improved</t>
+  </si>
+  <si>
+    <t>AB_Null</t>
+  </si>
+  <si>
+    <t>AB_Open</t>
+  </si>
+  <si>
+    <t>AB_Improved</t>
+  </si>
+  <si>
+    <t>34 to 6</t>
+  </si>
+  <si>
+    <t>24 to 16</t>
+  </si>
+  <si>
+    <t>30 to 10</t>
+  </si>
+  <si>
+    <t>31 to 9</t>
+  </si>
+  <si>
+    <t>27 to 13</t>
+  </si>
+  <si>
+    <t>26 to 14</t>
+  </si>
+  <si>
+    <t>25 to 15</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>36 to 4</t>
+  </si>
+  <si>
+    <t>32 to 8</t>
+  </si>
+  <si>
+    <t>Timeout warning when run against AB_Null</t>
+  </si>
+  <si>
+    <t>22 to 18</t>
+  </si>
+  <si>
+    <t>3 without opening book</t>
+  </si>
+  <si>
+    <t>35 to 5</t>
+  </si>
+  <si>
+    <t>28 to 12</t>
+  </si>
+  <si>
+    <t>29 to 11</t>
+  </si>
+  <si>
+    <t>21 to 19</t>
+  </si>
+  <si>
+    <t>33 to 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,8 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,20 +466,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="41.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.7036</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.70709999999999995</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>